--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_12_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_12_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74752.27977632463</v>
+        <v>70546.04270888861</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11685283.53937161</v>
+        <v>11737919.58534303</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21817163.8554897</v>
+        <v>21809305.2222931</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4108432.365908411</v>
+        <v>4106630.786402259</v>
       </c>
     </row>
     <row r="11">
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226639</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026311</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979123</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043561</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380177</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.8579709251007</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703003</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>20.92686739226636</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.51262335026308</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>66.54876907979121</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>34.79817869043559</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>12.12044141380176</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>66.85797092510069</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>73.02425275703001</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9088,10 +9088,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P20" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9562,10 +9562,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M22" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N22" t="n">
         <v>37.63776203285606</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H2" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I2" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>74.95115227296736</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167796</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H3" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.53808260908391</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H4" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I4" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R4" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S4" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H5" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I5" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>74.95115227296735</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S5" t="n">
-        <v>181.8424978167795</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H6" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.5380826090839</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S6" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T6" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H7" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I7" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R7" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S7" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T7" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S20" t="n">
         <v>179.1266962566148</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S21" t="n">
         <v>158.6458343615066</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>356176.7726995468</v>
+        <v>355258.3204022927</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>356176.7726995468</v>
+        <v>355258.3204022927</v>
       </c>
     </row>
     <row r="4">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77199.09324546649</v>
+        <v>77709.90440324535</v>
       </c>
       <c r="C2" t="n">
-        <v>77199.09324546649</v>
+        <v>77709.90440324534</v>
       </c>
       <c r="D2" t="n">
         <v>77709.90440324534</v>
@@ -26323,28 +26323,28 @@
         <v>77853.26966504499</v>
       </c>
       <c r="F2" t="n">
-        <v>77853.26966504504</v>
+        <v>77853.26966504501</v>
       </c>
       <c r="G2" t="n">
+        <v>77853.26966504499</v>
+      </c>
+      <c r="H2" t="n">
+        <v>77853.26966504501</v>
+      </c>
+      <c r="I2" t="n">
         <v>77853.26966504502</v>
-      </c>
-      <c r="H2" t="n">
-        <v>77853.26966504498</v>
-      </c>
-      <c r="I2" t="n">
-        <v>77853.26966504499</v>
       </c>
       <c r="J2" t="n">
         <v>77853.26966504499</v>
       </c>
       <c r="K2" t="n">
-        <v>77853.26966504498</v>
+        <v>77853.26966504501</v>
       </c>
       <c r="L2" t="n">
-        <v>77853.26966504498</v>
+        <v>77853.26966504501</v>
       </c>
       <c r="M2" t="n">
-        <v>77853.26966504498</v>
+        <v>77853.26966504499</v>
       </c>
       <c r="N2" t="n">
         <v>77853.26966504498</v>
@@ -26353,7 +26353,7 @@
         <v>77853.26966504499</v>
       </c>
       <c r="P2" t="n">
-        <v>77853.26966504498</v>
+        <v>77853.26966504499</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285877.3248289937</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19825.02250612895</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>5219.71675551499</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17067.67714818184</v>
+        <v>14530.27801883185</v>
       </c>
       <c r="C4" t="n">
-        <v>17067.67714818184</v>
+        <v>14530.27801883185</v>
       </c>
       <c r="D4" t="n">
-        <v>14020.34793363914</v>
+        <v>14530.27801883185</v>
       </c>
       <c r="E4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="F4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="G4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="H4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="I4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="J4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="K4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="L4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="M4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="N4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="O4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
       <c r="P4" t="n">
-        <v>13273.15313516057</v>
+        <v>13755.90721095272</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="C5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="D5" t="n">
         <v>40599.70256325733</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265840.9657723177</v>
+        <v>-285603.9599993981</v>
       </c>
       <c r="C6" t="n">
-        <v>20036.35905667596</v>
+        <v>22579.92382115616</v>
       </c>
       <c r="D6" t="n">
-        <v>3264.831400219911</v>
+        <v>22579.92382115616</v>
       </c>
       <c r="E6" t="n">
-        <v>52246.66240856565</v>
+        <v>51763.90833277351</v>
       </c>
       <c r="F6" t="n">
-        <v>57466.37916408069</v>
+        <v>56983.62508828851</v>
       </c>
       <c r="G6" t="n">
-        <v>57466.37916408067</v>
+        <v>56983.6250882885</v>
       </c>
       <c r="H6" t="n">
-        <v>57466.37916408063</v>
+        <v>56983.62508828851</v>
       </c>
       <c r="I6" t="n">
-        <v>57466.37916408064</v>
+        <v>56983.62508828853</v>
       </c>
       <c r="J6" t="n">
-        <v>57466.37916408064</v>
+        <v>56983.6250882885</v>
       </c>
       <c r="K6" t="n">
-        <v>57466.37916408063</v>
+        <v>56983.62508828851</v>
       </c>
       <c r="L6" t="n">
-        <v>57466.37916408063</v>
+        <v>56983.62508828851</v>
       </c>
       <c r="M6" t="n">
-        <v>57466.37916408063</v>
+        <v>56983.6250882885</v>
       </c>
       <c r="N6" t="n">
-        <v>57466.37916408063</v>
+        <v>56983.62508828849</v>
       </c>
       <c r="O6" t="n">
-        <v>57466.37916408064</v>
+        <v>56983.6250882885</v>
       </c>
       <c r="P6" t="n">
-        <v>57466.37916408063</v>
+        <v>56983.6250882885</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="D3" t="n">
         <v>319.8212184980426</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.14887718571737</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>6.497009291121628</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H2" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605395</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350063</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N2" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818232</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946578</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782727</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.638125413388775</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31145,22 +31145,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543468</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>64.70375129211759</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S4" t="n">
-        <v>9.3232930868152</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H5" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>45.97974045605396</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K5" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
-        <v>209.4193658350064</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N5" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P5" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>74.91796566818233</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S5" t="n">
-        <v>27.17757176946579</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T5" t="n">
-        <v>5.220836880782728</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K6" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -31382,22 +31382,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I7" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>62.15528724543469</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P7" t="n">
-        <v>64.7037512921176</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S7" t="n">
-        <v>9.323293086815202</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32020,7 +32020,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32099,7 +32099,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32148,7 +32148,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32160,10 +32160,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
@@ -32467,7 +32467,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J20" t="n">
         <v>111.3401072796808</v>
@@ -32494,7 +32494,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S20" t="n">
         <v>29.89337332963048</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H21" t="n">
         <v>6.778799411242828</v>
@@ -32573,7 +32573,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S21" t="n">
         <v>13.03733674233122</v>
@@ -32622,7 +32622,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I22" t="n">
         <v>17.69607700863206</v>
@@ -32634,10 +32634,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M22" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N22" t="n">
         <v>90.04778243237713</v>
